--- a/dados/quality_sp.xlsx
+++ b/dados/quality_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5c7f683-5f01-4bd4-b0ff-a92ad3735e57</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5c7f683-5f01-4bd4-b0ff-a92ad3735e57</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=d5c7f683-5f01-4bd4-b0ff-a92ad3735e57</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
         </is>
       </c>
     </row>
@@ -546,17 +586,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:84288564#searchVariation=MLB21320712&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=7d91bd75-7753-4430-875d-ca783b44d500</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:84288564#searchVariation=MLB21320712&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=6223e008-a5e3-4ee7-b710-65893a6434ad</t>
         </is>
       </c>
     </row>
@@ -571,17 +621,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=7d91bd75-7753-4430-875d-ca783b44d500</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=6223e008-a5e3-4ee7-b710-65893a6434ad</t>
         </is>
       </c>
     </row>
@@ -596,17 +656,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=ff17a926-ec37-4238-a4ee-a2237b4f18c5</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=0379eb80-5d24-4db3-a129-7475b014c4fd</t>
         </is>
       </c>
     </row>
@@ -621,17 +691,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=ff17a926-ec37-4238-a4ee-a2237b4f18c5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=0379eb80-5d24-4db3-a129-7475b014c4fd</t>
         </is>
       </c>
     </row>
@@ -646,17 +722,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=76063f68-dac0-4cd3-954e-bf69cb20fc89</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=3814893e-ac89-40f2-9796-4fd8d0c1820a</t>
         </is>
       </c>
     </row>
@@ -671,17 +753,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=dff3e2bd-b881-4f28-a8e9-0a53d11d84e8</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=f0a0b00f-e747-4f48-8072-93aab8d8cdad</t>
         </is>
       </c>
     </row>
@@ -696,17 +784,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61c461d6-c757-481d-8b50-34f4fece5f4b</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D80f44a33-0d81-4b24-a1a7-200cbe8547c5</t>
         </is>
       </c>
     </row>
@@ -721,17 +815,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61c461d6-c757-481d-8b50-34f4fece5f4b</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D80f44a33-0d81-4b24-a1a7-200cbe8547c5</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12466811-8f04-4b57-8fe1-7a80531e9859</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc1f06c-dce9-4daa-8c06-60176fe3e878</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D12466811-8f04-4b57-8fe1-7a80531e9859</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc1f06c-dce9-4daa-8c06-60176fe3e878</t>
         </is>
       </c>
     </row>
@@ -796,17 +908,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8c145b3-1540-44b0-a85a-5ea3df546d12</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92832eb9-bf98-434a-91e0-9510d1df3908</t>
         </is>
       </c>
     </row>
@@ -821,17 +939,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641965235-fonte-jfa-storm-carregador-digital-automotivo-120a-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7f56870-0f1e-4208-aae8-ab846da732b4</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641965235-fonte-jfa-storm-carregador-digital-automotivo-120a-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83808bd6-35f2-4c7c-b37b-20bcc28609ee</t>
         </is>
       </c>
     </row>
@@ -846,17 +974,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396202-carregador-jfa-storm-fonte-60a-digital-medidor-de-cca-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7f56870-0f1e-4208-aae8-ab846da732b4</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396202-carregador-jfa-storm-fonte-60a-digital-medidor-de-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83808bd6-35f2-4c7c-b37b-20bcc28609ee</t>
         </is>
       </c>
     </row>
@@ -871,17 +1009,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da4d3eb7a-455d-42a6-acbc-be7859c91dd8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df818d2b9-60b3-42ee-b4ae-f2e174e1dfb1</t>
         </is>
       </c>
     </row>
@@ -896,17 +1040,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd03a694d-8ec9-48a3-be44-48f54ac2bad5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca30347-60c8-4bdc-9549-4f1b90e8352f</t>
         </is>
       </c>
     </row>
@@ -921,17 +1071,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd03a694d-8ec9-48a3-be44-48f54ac2bad5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca30347-60c8-4bdc-9549-4f1b90e8352f</t>
         </is>
       </c>
     </row>
@@ -946,17 +1102,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3e459bb7-e61e-4870-9634-29a6fdc30239</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D10bd3ae5-60d3-4f6c-b4ca-2cca64fca9d5</t>
         </is>
       </c>
     </row>
@@ -971,17 +1133,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb712a7c-7a6c-4846-bb53-34f27ff2121b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc843217-85ec-42c7-93b0-6149e9e65e47</t>
         </is>
       </c>
     </row>
@@ -996,17 +1164,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208861247-carregador-fonte-automotivo-60a-jfa-storm-com-display-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfbad39f-2e3d-4273-b253-ec97e10cfa2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208861247-carregador-fonte-automotivo-60a-jfa-storm-com-display-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1199,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906402-fonte-automotiva-carregador-120-amperes-bivolt-jfa-digital-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfbad39f-2e3d-4273-b253-ec97e10cfa2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208906402-fonte-automotiva-carregador-120-amperes-bivolt-jfa-digital-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1234,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906481-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfbad39f-2e3d-4273-b253-ec97e10cfa2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208906481-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1269,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33bdfc4e-900b-4f26-8025-7e7d1be5c8fb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe45666-f6d8-404e-a844-f35f919a571e</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1300,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33bdfc4e-900b-4f26-8025-7e7d1be5c8fb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe45666-f6d8-404e-a844-f35f919a571e</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1335,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D094f9250-3aba-4d83-b56e-fed48374a768</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c4e188a-8ee5-4928-a724-72e014ac0bb3</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1370,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D094f9250-3aba-4d83-b56e-fed48374a768</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c4e188a-8ee5-4928-a724-72e014ac0bb3</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1401,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db113cb8d-7b46-4f95-abf5-d62ca2df143a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D074be6ab-d92e-40c2-8d35-3c37104d8d7c</t>
         </is>
       </c>
     </row>

--- a/dados/quality_sp.xlsx
+++ b/dados/quality_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>426.07</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>634.4</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
         </is>
       </c>
     </row>
@@ -546,14 +546,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>493.42</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=7908e0e6-88ac-44ae-9e00-6a9ea41713c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>477.12</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>436.56</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,29 +606,25 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:84288564#searchVariation=MLB21320712&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=6223e008-a5e3-4ee7-b710-65893a6434ad</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=a508a970-320f-44ec-85a4-ed5cc8659e32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -641,23 +637,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=6223e008-a5e3-4ee7-b710-65893a6434ad</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=18ac9fae-dcd6-47aa-b917-83875261b8e6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>436.56</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>477.12</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,7 +662,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,28 +672,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=0379eb80-5d24-4db3-a129-7475b014c4fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:84288564#searchVariation=MLB21320712&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=2c0ae4ea-0f56-4bfc-9611-968f4aaf1ff6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=0379eb80-5d24-4db3-a129-7475b014c4fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=2c0ae4ea-0f56-4bfc-9611-968f4aaf1ff6</t>
         </is>
       </c>
     </row>
@@ -717,13 +717,13 @@
           <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>89.98999999999999</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=3814893e-ac89-40f2-9796-4fd8d0c1820a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=3dba48a1-341d-4614-95e9-35f6aec41ba9</t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
           <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>62.79</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=f0a0b00f-e747-4f48-8072-93aab8d8cdad</t>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=51545bd1-749e-4df1-acfb-5e4b659467af</t>
         </is>
       </c>
     </row>
@@ -779,13 +779,13 @@
           <t>Filtro Anti-ruído E Conversor De Sinais Jfa</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>54.43</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D80f44a33-0d81-4b24-a1a7-200cbe8547c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2dc0e1ef-10a4-4cdf-8097-5153293e1299</t>
         </is>
       </c>
     </row>
@@ -810,13 +810,13 @@
           <t>Voltimetro Sequenciador Digital Jfa Vs5hi Led Vermelho.</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>55.23</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -831,23 +831,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D80f44a33-0d81-4b24-a1a7-200cbe8547c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2dc0e1ef-10a4-4cdf-8097-5153293e1299</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Filtro Jfa Blindagem E Anti-ruído</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Conversor Interface Comando Remoto Rca Slim Jfa </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>37.8</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -857,28 +857,28 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc1f06c-dce9-4daa-8c06-60176fe3e878</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conversor Interface Comando Remoto Rca Slim Jfa </t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Filtro Jfa Blindagem E Anti-ruído</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>48.99</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc1f06c-dce9-4daa-8c06-60176fe3e878</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
         </is>
       </c>
     </row>
@@ -903,13 +903,13 @@
           <t>Filtro Anti-ruido Jfa Eletromagnético 20/20k Rca Stereo</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>50.4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -924,32 +924,28 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92832eb9-bf98-434a-91e0-9510d1df3908</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa Storm Carregador Digital Automotivo 120a Bivolt </t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>674.76</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Automotivo Longa Distância Jfa K1200 Azul S/central</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -959,32 +955,28 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641965235-fonte-jfa-storm-carregador-digital-automotivo-120a-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83808bd6-35f2-4c7c-b37b-20bcc28609ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db5d60058-5cff-4351-9c5e-cd02e12b7886</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm Fonte 60a Digital Medidor De Cca</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>444.83</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Jfa Vermelho K1200 Avulso Longa Distância S/central</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>68</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -994,28 +986,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396202-carregador-jfa-storm-fonte-60a-digital-medidor-de-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83808bd6-35f2-4c7c-b37b-20bcc28609ee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063567170-controle-jfa-vermelho-k1200-avulso-longa-distncia-scentral-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db5d60058-5cff-4351-9c5e-cd02e12b7886</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Carregador Jfa Storm Fonte 60a Digital Medidor De Cca</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>444.83</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1025,25 +1021,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df818d2b9-60b3-42ee-b4ae-f2e174e1dfb1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396202-carregador-jfa-storm-fonte-60a-digital-medidor-de-cca-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d5004b4-b266-43c9-a35f-11c45da67248</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa 20/20k Rca Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Jfa Storm Carregador Digital Automotivo 120a Bivolt </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>674.76</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1051,28 +1051,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca30347-60c8-4bdc-9549-4f1b90e8352f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2641965235-fonte-jfa-storm-carregador-digital-automotivo-120a-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d5004b4-b266-43c9-a35f-11c45da67248</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conversor Interface Via Fio Para Rca Slim Jfa Comando Remoto</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>40.99</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa 20/20k Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>50.4</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1082,28 +1082,28 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca30347-60c8-4bdc-9549-4f1b90e8352f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd960203c-51c3-48db-83a2-0fb6ae093abc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Automotivo Longa Distância Jfa K1200 Azul S/central</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>48.99</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1113,28 +1113,28 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D10bd3ae5-60d3-4f6c-b4ca-2cca64fca9d5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd960203c-51c3-48db-83a2-0fb6ae093abc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Filtro Blindagem E Anti-ruído Jfa Eletromagnético</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Conversor Interface Via Fio Para Rca Slim Jfa Comando Remoto</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>40.99</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1149,29 +1149,25 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc843217-85ec-42c7-93b0-6149e9e65e47</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb5f9f05-8e89-4d86-a886-56dccec3430b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carregador Fonte Automotivo 60a Jfa Storm Com Display </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>473.4</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Filtro Blindagem E Anti-ruído Jfa Eletromagnético</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1184,27 +1180,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208861247-carregador-fonte-automotivo-60a-jfa-storm-com-display-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69bc1588-c16a-4b77-967c-9fdbd2d5785f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Carregador 120 Amperes Bivolt Jfa Digital </t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t xml:space="preserve">Carregador Fonte Automotivo 60a Jfa Storm Com Display </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>473.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1214,32 +1210,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906402-fonte-automotiva-carregador-120-amperes-bivolt-jfa-digital-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208861247-carregador-fonte-automotivo-60a-jfa-storm-com-display-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25c4bfae-9512-4577-9d56-fddef19fa88b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>674.6900000000001</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t xml:space="preserve">Fonte Automotiva Carregador 120 Amperes Bivolt Jfa Digital </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>634.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1249,30 +1245,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906481-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D826ed8e4-3daf-417c-8838-03c65c4ec462</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208906402-fonte-automotiva-carregador-120-amperes-bivolt-jfa-digital-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25c4bfae-9512-4577-9d56-fddef19fa88b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Filtro Anto-ruído Jfa  Eletromagnética</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>674.6900000000001</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1280,28 +1280,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe45666-f6d8-404e-a844-f35f919a571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208906481-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador 40a  Storm Jfa Medidor Cca E Volt/amp </t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>433</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Carregador Fonte Som 70a Jfa Storm Digital Automotivo Bivolt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>523.63</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1320,29 +1320,25 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe45666-f6d8-404e-a844-f35f919a571e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Carregador Fonte Som 70a Jfa Storm Digital Automotivo Bivolt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Anto-ruído Jfa  Eletromagnética</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1350,30 +1346,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c4e188a-8ee5-4928-a724-72e014ac0bb3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Voltimetro Sequenciador Jfa Vs5hi Digital Led Vermelho</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador 40a  Storm Jfa Medidor Cca E Volt/amp </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>433</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1386,42 +1386,73 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c4e188a-8ee5-4928-a724-72e014ac0bb3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Voltimetro Sequenciador Jfa Vs5hi Digital Led Vermelho</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87182312-c3cc-4ac8-b9fb-a30e764fd8ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t xml:space="preserve">Fonte Carregador 40a Storm Jfa Digital Com Medidor De Cca </t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>402.79</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D074be6ab-d92e-40c2-8d35-3c37104d8d7c</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a0265f4-b134-4ceb-bff3-9ccbe1aa74c8</t>
         </is>
       </c>
     </row>

--- a/dados/quality_sp.xlsx
+++ b/dados/quality_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>426.07</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>36.38</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -501,27 +497,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc8ae06e-0690-4876-8bcb-7639e6cff0f9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>634.4</v>
+        <v>426.07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,23 +532,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:84288564#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc8ae06e-0690-4876-8bcb-7639e6cff0f9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>493.42</v>
+        <v>634.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,93 +567,97 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=dd5867d9-493b-4630-84cf-4114ea27b4b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:84288564#searchVariation=MLB21392652&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc8ae06e-0690-4876-8bcb-7639e6cff0f9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>436.56</v>
+        <v>805.59</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=a508a970-320f-44ec-85a4-ed5cc8659e32</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=c04020c4-0755-42df-98ba-c6492fe09460</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>402.79</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=18ac9fae-dcd6-47aa-b917-83875261b8e6</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=73486e35-d5c6-43b5-b654-64530544f7cc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>477.12</v>
+        <v>493.42</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,80 +672,84 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:84288564#searchVariation=MLB21320712&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=2c0ae4ea-0f56-4bfc-9611-968f4aaf1ff6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=1ee483e0-b47b-4b60-9520-a94fc80f0acb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>805.59</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:84288564#searchVariation=MLB21348561&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=2c0ae4ea-0f56-4bfc-9611-968f4aaf1ff6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=9af496bf-c7cf-4860-9e3e-8d384b4711fb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
+          <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>62.79</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:84288564#searchVariation=MLB29541981&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=3dba48a1-341d-4614-95e9-35f6aec41ba9</t>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=36871459-087a-44da-8bf0-b61ca56d0957</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
+          <t>Filtro Anti-ruído E Conversor De Sinais Jfa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -754,7 +758,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>62.79</v>
+        <v>54.43</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -769,14 +773,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:84288564#searchVariation=MLB28359785&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=51545bd1-749e-4df1-acfb-5e4b659467af</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc0c57f-3844-4e1a-8005-faac000b4014</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruído E Conversor De Sinais Jfa</t>
+          <t>Voltimetro Sequenciador Digital Jfa Vs5hi Led Vermelho.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -785,7 +789,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54.43</v>
+        <v>55.23</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -800,14 +804,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2dc0e1ef-10a4-4cdf-8097-5153293e1299</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc0c57f-3844-4e1a-8005-faac000b4014</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Voltimetro Sequenciador Digital Jfa Vs5hi Led Vermelho.</t>
+          <t>Filtro Jfa Blindagem E Anti-ruído</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -816,12 +820,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55.23</v>
+        <v>48.99</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -831,7 +835,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2dc0e1ef-10a4-4cdf-8097-5153293e1299</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc0c57f-3844-4e1a-8005-faac000b4014</t>
         </is>
       </c>
     </row>
@@ -862,14 +866,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037955677-conversor-interface-comando-remoto-rca-slim-jfa-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc0c57f-3844-4e1a-8005-faac000b4014</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Filtro Jfa Blindagem E Anti-ruído</t>
+          <t>Filtro Anti-ruido Jfa Eletromagnético 20/20k Rca Stereo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -878,7 +882,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48.99</v>
+        <v>50.4</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -888,30 +892,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493027-filtro-jfa-blindagem-e-anti-ruido-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db241fc37-efb3-4712-b21f-9ae724ffd36e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Eletromagnético 20/20k Rca Stereo</t>
+          <t>Controle Automotivo Longa Distância Jfa K1200 Azul S/central</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>51.3</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -924,25 +932,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590118639-filtro-anti-ruido-jfa-eletromagnetico-2020k-rca-stereo-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0942134e-0c64-4e6a-b93b-2d46369c90ef</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7f876e3-2cb2-4e71-8c05-513b53b09447</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Automotivo Longa Distância Jfa K1200 Azul S/central</t>
+          <t>Controle Jfa Vermelho K1200 Avulso Longa Distância S/central</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -950,19 +962,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453689301-controle-automotivo-longa-distncia-jfa-k1200-azul-scentral-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db5d60058-5cff-4351-9c5e-cd02e12b7886</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063567170-controle-jfa-vermelho-k1200-avulso-longa-distncia-scentral-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7f876e3-2cb2-4e71-8c05-513b53b09447</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Jfa Vermelho K1200 Avulso Longa Distância S/central</t>
+          <t>Conversor Interface Via Fio Para Rca Slim Jfa Comando Remoto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -971,7 +983,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68</v>
+        <v>40.99</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -981,37 +993,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063567170-controle-jfa-vermelho-k1200-avulso-longa-distncia-scentral-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db5d60058-5cff-4351-9c5e-cd02e12b7886</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D134e24d1-d7c8-4cd6-bf4c-976980fb10d1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm Fonte 60a Digital Medidor De Cca</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>444.83</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>48.99</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1021,29 +1029,25 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396202-carregador-jfa-storm-fonte-60a-digital-medidor-de-cca-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d5004b4-b266-43c9-a35f-11c45da67248</t>
+          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D134e24d1-d7c8-4cd6-bf4c-976980fb10d1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa Storm Carregador Digital Automotivo 120a Bivolt </t>
+          <t>Filtro Anti-ruido Jfa 20/20k Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>674.76</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>50.4</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1051,19 +1055,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641965235-fonte-jfa-storm-carregador-digital-automotivo-120a-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d5004b4-b266-43c9-a35f-11c45da67248</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db4b5094c-06f8-4c10-a51f-6d683bbbae8c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa 20/20k Rca Eletromagnético Stereo</t>
+          <t>Voltimetro Sequenciador Jfa Vs5hi Digital Led Vermelho</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1072,7 +1076,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50.4</v>
+        <v>63.9</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1082,19 +1086,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590131285-filtro-anti-ruido-jfa-2020k-rca-eletromagnetico-stereo-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd960203c-51c3-48db-83a2-0fb6ae093abc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db4b5094c-06f8-4c10-a51f-6d683bbbae8c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
+          <t>Filtro Blindagem E Anti-ruído Jfa Eletromagnético</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1103,7 +1107,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48.99</v>
+        <v>52.18</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1113,19 +1117,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-786094018-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd960203c-51c3-48db-83a2-0fb6ae093abc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D419b4993-0ced-4d8e-b5fd-27f66a09caeb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conversor Interface Via Fio Para Rca Slim Jfa Comando Remoto</t>
+          <t>Filtro Anto-ruído Jfa  Eletromagnética</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1134,7 +1138,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40.99</v>
+        <v>48.99</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1144,30 +1148,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4571334324-conversor-interface-via-fio-para-rca-slim-jfa-comando-remoto-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb5f9f05-8e89-4d86-a886-56dccec3430b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ea7a0eb-4c4d-4cd5-9836-519b656d080f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Filtro Blindagem E Anti-ruído Jfa Eletromagnético</t>
+          <t>Carregador Fonte Som 70a Jfa Storm Digital Automotivo Bivolt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>523.63</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1180,27 +1188,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777503537-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69bc1588-c16a-4b77-967c-9fdbd2d5785f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def9af916-8890-4fbb-8672-a929c31939c1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carregador Fonte Automotivo 60a Jfa Storm Com Display </t>
+          <t xml:space="preserve">Fonte Carregador 40a  Storm Jfa Medidor Cca E Volt/amp </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>473.4</v>
+        <v>433</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1215,23 +1223,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208861247-carregador-fonte-automotivo-60a-jfa-storm-com-display-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25c4bfae-9512-4577-9d56-fddef19fa88b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbb183c88-71b3-4ce8-8d52-146b92eef21f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Carregador 120 Amperes Bivolt Jfa Digital </t>
+          <t xml:space="preserve">Fonte Carregador 40a Storm Jfa Digital Com Medidor De Cca </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>634.4</v>
+        <v>402.79</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1250,29 +1258,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906402-fonte-automotiva-carregador-120-amperes-bivolt-jfa-digital-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25c4bfae-9512-4577-9d56-fddef19fa88b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42bc8b0d-0d95-4592-a491-667d0312cb0c</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+          <t>Kit 3 Filtros Jfa Anti Ruido Com Blindagem Rca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>674.6900000000001</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>186.31</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1285,174 +1289,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208906481-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Carregador Fonte Som 70a Jfa Storm Digital Automotivo Bivolt</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208857188-carregador-fonte-som-70a-jfa-storm-digital-automotivo-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Filtro Anto-ruído Jfa  Eletromagnética</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-730728667-filtro-anto-ruido-jfa-eletromagnetica-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonte Carregador 40a  Storm Jfa Medidor Cca E Volt/amp </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>433</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208792205-fonte-carregador-40a-storm-jfa-medidor-cca-e-voltamp-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D208a0fc0-a23d-4b6a-a25e-6d98955469d7</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Voltimetro Sequenciador Jfa Vs5hi Digital Led Vermelho</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2037962261-voltimetro-sequenciador-jfa-vs5hi-digital-led-vermelho-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D87182312-c3cc-4ac8-b9fb-a30e764fd8ec</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonte Carregador 40a Storm Jfa Digital Com Medidor De Cca </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208785583-fonte-carregador-40a-storm-jfa-digital-com-medidor-de-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a0265f4-b134-4ceb-bff3-9ccbe1aa74c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2613052724-kit-3-filtros-jfa-anti-ruido-com-blindagem-rca-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def34032b-2539-430e-885d-514ee1f5c43d</t>
         </is>
       </c>
     </row>

--- a/dados/quality_sp.xlsx
+++ b/dados/quality_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>37.18</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -517,97 +517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=108265fd-1c2c-442b-a8d7-007d74aeadcd</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>quality_sp</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>459.77</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:84288564#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=108265fd-1c2c-442b-a8d7-007d74aeadcd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>quality_sp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>360.38</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:84288564#searchVariation=MLB21621306&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=227fd110-7d9f-475c-b6f9-fab1208372a1</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:84288564#searchVariation=MLB25707531&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=01adc1ad-8c08-40a6-acdd-051248af5ffb</t>
         </is>
       </c>
     </row>
